--- a/Fighter Engineer/Assets/Resources/Table/Parts.xlsx
+++ b/Fighter Engineer/Assets/Resources/Table/Parts.xlsx
@@ -597,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G23"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -934,321 +934,133 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>20</v>
-      </c>
-      <c r="J8">
-        <v>5</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>20</v>
-      </c>
-      <c r="M8">
-        <v>20</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>20</v>
-      </c>
-      <c r="J9">
-        <v>10</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>20</v>
-      </c>
-      <c r="M9">
-        <v>20</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>20</v>
-      </c>
-      <c r="J10">
-        <v>20</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>20</v>
-      </c>
-      <c r="M10">
-        <v>20</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>50</v>
-      </c>
-      <c r="J11">
-        <v>15</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>40</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>10</v>
-      </c>
-      <c r="O11">
-        <v>15</v>
-      </c>
-    </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J12">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N12">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F13" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G13" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K13">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M13">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G14" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14">
         <v>20</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K14">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>20</v>
@@ -1265,46 +1077,46 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E15" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G15" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K15">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M15">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O15">
         <v>15</v>
@@ -1312,37 +1124,37 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K16">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>40</v>
@@ -1354,98 +1166,98 @@
         <v>10</v>
       </c>
       <c r="O16">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E17" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H17">
         <v>2</v>
       </c>
       <c r="I17">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="L17">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N17">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>20</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
         <v>15</v>
       </c>
-      <c r="B18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18">
-        <v>3</v>
-      </c>
-      <c r="I18">
-        <v>100</v>
-      </c>
-      <c r="J18">
-        <v>100</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
       <c r="L18">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N18">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>10</v>
@@ -1453,181 +1265,181 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E19" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I19">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L19">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="M19">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A20">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E20" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G20" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I20">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L20">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="M20">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O20">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A21">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I21">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L21">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M21">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O21">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A22">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D22" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="E22" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="G22" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="H22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I22">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1636,53 +1448,241 @@
         <v>10</v>
       </c>
       <c r="O22">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A23">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E23" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G23" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H23">
         <v>4</v>
       </c>
       <c r="I23">
+        <v>10</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>10</v>
+      </c>
+      <c r="M23">
+        <v>10</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>17</v>
+      </c>
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24">
+        <v>4</v>
+      </c>
+      <c r="I24">
+        <v>15</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>20</v>
+      </c>
+      <c r="M24">
+        <v>20</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>18</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" t="s">
+        <v>35</v>
+      </c>
+      <c r="H25">
+        <v>4</v>
+      </c>
+      <c r="I25">
+        <v>20</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
         <v>30</v>
       </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
+      <c r="M25">
+        <v>30</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>19</v>
+      </c>
+      <c r="B26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" t="s">
+        <v>36</v>
+      </c>
+      <c r="H26">
+        <v>4</v>
+      </c>
+      <c r="I26">
+        <v>25</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>40</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>10</v>
+      </c>
+      <c r="O26">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>20</v>
+      </c>
+      <c r="B27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27" t="s">
+        <v>37</v>
+      </c>
+      <c r="H27">
+        <v>4</v>
+      </c>
+      <c r="I27">
+        <v>30</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
         <v>50</v>
       </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>10</v>
-      </c>
-      <c r="O23">
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>10</v>
+      </c>
+      <c r="O27">
         <v>20</v>
       </c>
     </row>
